--- a/assets/data/excelsheets/Tools.xlsx
+++ b/assets/data/excelsheets/Tools.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\hello-from-anon-researcher.github.io\assets\data\excelsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127334D7-3EB6-4A72-8D8C-367D385A31D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B77FC8E-36FB-4A74-9B7E-8F2A5FEB9136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Generic Malware" sheetId="1" r:id="rId1"/>
-    <sheet name="Inter App Attacks" sheetId="7" r:id="rId2"/>
-    <sheet name="Repackaged Malware" sheetId="6" r:id="rId3"/>
-    <sheet name="Payloads" sheetId="5" r:id="rId4"/>
+    <sheet name="Not Malware Detection" sheetId="8" r:id="rId1"/>
+    <sheet name="Generic Malware" sheetId="1" r:id="rId2"/>
+    <sheet name="Forced Execution" sheetId="2" r:id="rId3"/>
+    <sheet name="Condition Detection" sheetId="3" r:id="rId4"/>
     <sheet name="Hiding Detection" sheetId="4" r:id="rId5"/>
-    <sheet name="Condition Detection" sheetId="3" r:id="rId6"/>
-    <sheet name="Forced Execution" sheetId="2" r:id="rId7"/>
-    <sheet name="Not Malware Detection" sheetId="8" r:id="rId8"/>
+    <sheet name="Payloads" sheetId="5" r:id="rId6"/>
+    <sheet name="Repackaged Malware" sheetId="6" r:id="rId7"/>
+    <sheet name="Inter App Attacks" sheetId="7" r:id="rId8"/>
+    <sheet name="Dynamic Loading" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="282">
   <si>
     <t>Paper</t>
   </si>
@@ -1246,11 +1247,1351 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E418EBA0-0C1C-4681-8DB9-511C5F1279F7}">
+  <dimension ref="A1:C120"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="124.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>185</v>
+      </c>
+      <c r="B24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>186</v>
+      </c>
+      <c r="B25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>187</v>
+      </c>
+      <c r="B26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>188</v>
+      </c>
+      <c r="B27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>192</v>
+      </c>
+      <c r="B31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>193</v>
+      </c>
+      <c r="B32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>196</v>
+      </c>
+      <c r="B35" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>197</v>
+      </c>
+      <c r="B36" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>198</v>
+      </c>
+      <c r="B37" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>199</v>
+      </c>
+      <c r="B38" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>200</v>
+      </c>
+      <c r="B39" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>201</v>
+      </c>
+      <c r="B40" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>202</v>
+      </c>
+      <c r="B41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>204</v>
+      </c>
+      <c r="B43" t="s">
+        <v>162</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>205</v>
+      </c>
+      <c r="B44" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>206</v>
+      </c>
+      <c r="B45" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>207</v>
+      </c>
+      <c r="B46" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>209</v>
+      </c>
+      <c r="B48" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>210</v>
+      </c>
+      <c r="B49" t="s">
+        <v>162</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>211</v>
+      </c>
+      <c r="B50" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>212</v>
+      </c>
+      <c r="B51" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>213</v>
+      </c>
+      <c r="B52" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>214</v>
+      </c>
+      <c r="B53" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>215</v>
+      </c>
+      <c r="B54" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>216</v>
+      </c>
+      <c r="B55" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>217</v>
+      </c>
+      <c r="B56" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>218</v>
+      </c>
+      <c r="B57" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>219</v>
+      </c>
+      <c r="B58" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>220</v>
+      </c>
+      <c r="B59" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>221</v>
+      </c>
+      <c r="B60" t="s">
+        <v>162</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>222</v>
+      </c>
+      <c r="B61" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>223</v>
+      </c>
+      <c r="B62" t="s">
+        <v>162</v>
+      </c>
+      <c r="C62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>224</v>
+      </c>
+      <c r="B63" t="s">
+        <v>162</v>
+      </c>
+      <c r="C63" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>225</v>
+      </c>
+      <c r="B64" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>226</v>
+      </c>
+      <c r="B65" t="s">
+        <v>162</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>227</v>
+      </c>
+      <c r="B66" t="s">
+        <v>162</v>
+      </c>
+      <c r="C66" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>228</v>
+      </c>
+      <c r="B67" t="s">
+        <v>162</v>
+      </c>
+      <c r="C67" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>229</v>
+      </c>
+      <c r="B68" t="s">
+        <v>162</v>
+      </c>
+      <c r="C68" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>230</v>
+      </c>
+      <c r="B69" t="s">
+        <v>162</v>
+      </c>
+      <c r="C69" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>231</v>
+      </c>
+      <c r="B70" t="s">
+        <v>162</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>232</v>
+      </c>
+      <c r="B71" t="s">
+        <v>162</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>233</v>
+      </c>
+      <c r="B72" t="s">
+        <v>162</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>234</v>
+      </c>
+      <c r="B73" t="s">
+        <v>162</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>235</v>
+      </c>
+      <c r="B74" t="s">
+        <v>162</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>236</v>
+      </c>
+      <c r="B75" t="s">
+        <v>162</v>
+      </c>
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>237</v>
+      </c>
+      <c r="B76" t="s">
+        <v>162</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>238</v>
+      </c>
+      <c r="B77" t="s">
+        <v>162</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>239</v>
+      </c>
+      <c r="B78" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>240</v>
+      </c>
+      <c r="B79" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>241</v>
+      </c>
+      <c r="B80" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>242</v>
+      </c>
+      <c r="B81" t="s">
+        <v>162</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>243</v>
+      </c>
+      <c r="B82" t="s">
+        <v>162</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>244</v>
+      </c>
+      <c r="B83" t="s">
+        <v>162</v>
+      </c>
+      <c r="C83" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>245</v>
+      </c>
+      <c r="B84" t="s">
+        <v>162</v>
+      </c>
+      <c r="C84" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>246</v>
+      </c>
+      <c r="B85" t="s">
+        <v>162</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>247</v>
+      </c>
+      <c r="B86" t="s">
+        <v>162</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>248</v>
+      </c>
+      <c r="B87" t="s">
+        <v>162</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>249</v>
+      </c>
+      <c r="B88" t="s">
+        <v>162</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>250</v>
+      </c>
+      <c r="B89" t="s">
+        <v>162</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>251</v>
+      </c>
+      <c r="B90" t="s">
+        <v>162</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>252</v>
+      </c>
+      <c r="B91" t="s">
+        <v>162</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>253</v>
+      </c>
+      <c r="B92" t="s">
+        <v>162</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>254</v>
+      </c>
+      <c r="B93" t="s">
+        <v>162</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>255</v>
+      </c>
+      <c r="B94" t="s">
+        <v>162</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>256</v>
+      </c>
+      <c r="B95" t="s">
+        <v>162</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>257</v>
+      </c>
+      <c r="B96" t="s">
+        <v>162</v>
+      </c>
+      <c r="C96" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>258</v>
+      </c>
+      <c r="B97" t="s">
+        <v>162</v>
+      </c>
+      <c r="C97" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>259</v>
+      </c>
+      <c r="B98" t="s">
+        <v>162</v>
+      </c>
+      <c r="C98" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>260</v>
+      </c>
+      <c r="B99" t="s">
+        <v>162</v>
+      </c>
+      <c r="C99" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>261</v>
+      </c>
+      <c r="B100" t="s">
+        <v>162</v>
+      </c>
+      <c r="C100" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>262</v>
+      </c>
+      <c r="B101" t="s">
+        <v>162</v>
+      </c>
+      <c r="C101" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>263</v>
+      </c>
+      <c r="B102" t="s">
+        <v>162</v>
+      </c>
+      <c r="C102" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>264</v>
+      </c>
+      <c r="B103" t="s">
+        <v>162</v>
+      </c>
+      <c r="C103" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>265</v>
+      </c>
+      <c r="B104" t="s">
+        <v>162</v>
+      </c>
+      <c r="C104" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>266</v>
+      </c>
+      <c r="B105" t="s">
+        <v>162</v>
+      </c>
+      <c r="C105" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>267</v>
+      </c>
+      <c r="B106" t="s">
+        <v>162</v>
+      </c>
+      <c r="C106" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>268</v>
+      </c>
+      <c r="B107" t="s">
+        <v>162</v>
+      </c>
+      <c r="C107" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>269</v>
+      </c>
+      <c r="B108" t="s">
+        <v>162</v>
+      </c>
+      <c r="C108" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>270</v>
+      </c>
+      <c r="B109" t="s">
+        <v>162</v>
+      </c>
+      <c r="C109" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>271</v>
+      </c>
+      <c r="B110" t="s">
+        <v>162</v>
+      </c>
+      <c r="C110" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>272</v>
+      </c>
+      <c r="B111" t="s">
+        <v>162</v>
+      </c>
+      <c r="C111" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>273</v>
+      </c>
+      <c r="B112" t="s">
+        <v>162</v>
+      </c>
+      <c r="C112" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>274</v>
+      </c>
+      <c r="B113" t="s">
+        <v>162</v>
+      </c>
+      <c r="C113" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>275</v>
+      </c>
+      <c r="B114" t="s">
+        <v>162</v>
+      </c>
+      <c r="C114" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>276</v>
+      </c>
+      <c r="B115" t="s">
+        <v>162</v>
+      </c>
+      <c r="C115" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>277</v>
+      </c>
+      <c r="B116" t="s">
+        <v>162</v>
+      </c>
+      <c r="C116" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>278</v>
+      </c>
+      <c r="B117" t="s">
+        <v>162</v>
+      </c>
+      <c r="C117" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>279</v>
+      </c>
+      <c r="B118" t="s">
+        <v>162</v>
+      </c>
+      <c r="C118" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>280</v>
+      </c>
+      <c r="B119" t="s">
+        <v>162</v>
+      </c>
+      <c r="C119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>281</v>
+      </c>
+      <c r="B120" t="s">
+        <v>162</v>
+      </c>
+      <c r="C120" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2223,204 +3564,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B6A541-71C6-498C-B327-560016109368}">
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="112.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>156</v>
-      </c>
-      <c r="B12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>159</v>
-      </c>
-      <c r="B15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>160</v>
-      </c>
-      <c r="B16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9A6716-FA80-4D13-B419-48486B2E18D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B71921-3863-4BCF-B2BC-616B2DBD2F81}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2429,8 +3574,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="92" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2447,10 +3592,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -2458,10 +3603,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -2469,10 +3614,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2480,21 +3625,21 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
@@ -2506,8 +3651,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0D4630-7DB9-4EF4-B1E0-F67154ECA05D}">
-  <dimension ref="A1:C33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A32DCF1-58F4-430F-A95C-A8E9469DA211}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
@@ -2515,8 +3660,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="116.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="90.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2533,10 +3678,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -2544,10 +3689,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -2555,331 +3700,12 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>129</v>
-      </c>
-      <c r="B24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>130</v>
-      </c>
-      <c r="B25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>131</v>
-      </c>
-      <c r="B26" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>132</v>
-      </c>
-      <c r="B27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>133</v>
-      </c>
-      <c r="B28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>134</v>
-      </c>
-      <c r="B29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>135</v>
-      </c>
-      <c r="B30" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>137</v>
-      </c>
-      <c r="B32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>138</v>
-      </c>
-      <c r="B33" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2953,8 +3779,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A32DCF1-58F4-430F-A95C-A8E9469DA211}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0D4630-7DB9-4EF4-B1E0-F67154ECA05D}">
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
@@ -2962,8 +3788,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="90.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="116.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2980,10 +3806,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -2991,10 +3817,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -3002,12 +3828,331 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3017,7 +4162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B71921-3863-4BCF-B2BC-616B2DBD2F81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9A6716-FA80-4D13-B419-48486B2E18D8}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3026,7 +4171,93 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B6A541-71C6-498C-B327-560016109368}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="112.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3044,10 +4275,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -3055,21 +4286,21 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -3077,24 +4308,134 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3102,19 +4443,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E418EBA0-0C1C-4681-8DB9-511C5F1279F7}">
-  <dimension ref="A1:C121"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E84EEF-058E-495D-BBE2-A3BE79AFDEC1}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="124.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="84.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3130,1322 +4471,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
         <v>162</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>169</v>
-      </c>
-      <c r="B9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>170</v>
-      </c>
-      <c r="B10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>171</v>
-      </c>
-      <c r="B11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B12" t="s">
-        <v>162</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>173</v>
-      </c>
-      <c r="B13" t="s">
-        <v>162</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>174</v>
-      </c>
-      <c r="B14" t="s">
-        <v>162</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>175</v>
-      </c>
-      <c r="B15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>176</v>
-      </c>
-      <c r="B16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>177</v>
-      </c>
-      <c r="B17" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>178</v>
-      </c>
-      <c r="B18" t="s">
-        <v>162</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>179</v>
-      </c>
-      <c r="B19" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>180</v>
-      </c>
-      <c r="B20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>181</v>
-      </c>
-      <c r="B21" t="s">
-        <v>162</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>182</v>
-      </c>
-      <c r="B22" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>183</v>
-      </c>
-      <c r="B23" t="s">
-        <v>162</v>
-      </c>
-      <c r="C23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>184</v>
-      </c>
-      <c r="B24" t="s">
-        <v>162</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>185</v>
-      </c>
-      <c r="B25" t="s">
-        <v>162</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>186</v>
-      </c>
-      <c r="B26" t="s">
-        <v>162</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>187</v>
-      </c>
-      <c r="B27" t="s">
-        <v>162</v>
-      </c>
-      <c r="C27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>188</v>
-      </c>
-      <c r="B28" t="s">
-        <v>162</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>189</v>
-      </c>
-      <c r="B29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>190</v>
-      </c>
-      <c r="B30" t="s">
-        <v>162</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>191</v>
-      </c>
-      <c r="B31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>192</v>
-      </c>
-      <c r="B32" t="s">
-        <v>162</v>
-      </c>
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>193</v>
-      </c>
-      <c r="B33" t="s">
-        <v>162</v>
-      </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>194</v>
-      </c>
-      <c r="B34" t="s">
-        <v>162</v>
-      </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>195</v>
-      </c>
-      <c r="B35" t="s">
-        <v>162</v>
-      </c>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>196</v>
-      </c>
-      <c r="B36" t="s">
-        <v>162</v>
-      </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>197</v>
-      </c>
-      <c r="B37" t="s">
-        <v>162</v>
-      </c>
-      <c r="C37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>198</v>
-      </c>
-      <c r="B38" t="s">
-        <v>162</v>
-      </c>
-      <c r="C38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>199</v>
-      </c>
-      <c r="B39" t="s">
-        <v>162</v>
-      </c>
-      <c r="C39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>200</v>
-      </c>
-      <c r="B40" t="s">
-        <v>162</v>
-      </c>
-      <c r="C40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>201</v>
-      </c>
-      <c r="B41" t="s">
-        <v>162</v>
-      </c>
-      <c r="C41" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>202</v>
-      </c>
-      <c r="B42" t="s">
-        <v>162</v>
-      </c>
-      <c r="C42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>203</v>
-      </c>
-      <c r="B43" t="s">
-        <v>162</v>
-      </c>
-      <c r="C43" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>204</v>
-      </c>
-      <c r="B44" t="s">
-        <v>162</v>
-      </c>
-      <c r="C44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>205</v>
-      </c>
-      <c r="B45" t="s">
-        <v>162</v>
-      </c>
-      <c r="C45" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>206</v>
-      </c>
-      <c r="B46" t="s">
-        <v>162</v>
-      </c>
-      <c r="C46" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>207</v>
-      </c>
-      <c r="B47" t="s">
-        <v>162</v>
-      </c>
-      <c r="C47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>208</v>
-      </c>
-      <c r="B48" t="s">
-        <v>162</v>
-      </c>
-      <c r="C48" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>209</v>
-      </c>
-      <c r="B49" t="s">
-        <v>162</v>
-      </c>
-      <c r="C49" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>210</v>
-      </c>
-      <c r="B50" t="s">
-        <v>162</v>
-      </c>
-      <c r="C50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>211</v>
-      </c>
-      <c r="B51" t="s">
-        <v>162</v>
-      </c>
-      <c r="C51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>212</v>
-      </c>
-      <c r="B52" t="s">
-        <v>162</v>
-      </c>
-      <c r="C52" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>213</v>
-      </c>
-      <c r="B53" t="s">
-        <v>162</v>
-      </c>
-      <c r="C53" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>214</v>
-      </c>
-      <c r="B54" t="s">
-        <v>162</v>
-      </c>
-      <c r="C54" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>215</v>
-      </c>
-      <c r="B55" t="s">
-        <v>162</v>
-      </c>
-      <c r="C55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>216</v>
-      </c>
-      <c r="B56" t="s">
-        <v>162</v>
-      </c>
-      <c r="C56" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>217</v>
-      </c>
-      <c r="B57" t="s">
-        <v>162</v>
-      </c>
-      <c r="C57" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>218</v>
-      </c>
-      <c r="B58" t="s">
-        <v>162</v>
-      </c>
-      <c r="C58" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>219</v>
-      </c>
-      <c r="B59" t="s">
-        <v>162</v>
-      </c>
-      <c r="C59" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>220</v>
-      </c>
-      <c r="B60" t="s">
-        <v>162</v>
-      </c>
-      <c r="C60" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>221</v>
-      </c>
-      <c r="B61" t="s">
-        <v>162</v>
-      </c>
-      <c r="C61" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>222</v>
-      </c>
-      <c r="B62" t="s">
-        <v>162</v>
-      </c>
-      <c r="C62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>223</v>
-      </c>
-      <c r="B63" t="s">
-        <v>162</v>
-      </c>
-      <c r="C63" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>224</v>
-      </c>
-      <c r="B64" t="s">
-        <v>162</v>
-      </c>
-      <c r="C64" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>225</v>
-      </c>
-      <c r="B65" t="s">
-        <v>162</v>
-      </c>
-      <c r="C65" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>226</v>
-      </c>
-      <c r="B66" t="s">
-        <v>162</v>
-      </c>
-      <c r="C66" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>227</v>
-      </c>
-      <c r="B67" t="s">
-        <v>162</v>
-      </c>
-      <c r="C67" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>228</v>
-      </c>
-      <c r="B68" t="s">
-        <v>162</v>
-      </c>
-      <c r="C68" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>229</v>
-      </c>
-      <c r="B69" t="s">
-        <v>162</v>
-      </c>
-      <c r="C69" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>230</v>
-      </c>
-      <c r="B70" t="s">
-        <v>162</v>
-      </c>
-      <c r="C70" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>231</v>
-      </c>
-      <c r="B71" t="s">
-        <v>162</v>
-      </c>
-      <c r="C71" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>232</v>
-      </c>
-      <c r="B72" t="s">
-        <v>162</v>
-      </c>
-      <c r="C72" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>233</v>
-      </c>
-      <c r="B73" t="s">
-        <v>162</v>
-      </c>
-      <c r="C73" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>234</v>
-      </c>
-      <c r="B74" t="s">
-        <v>162</v>
-      </c>
-      <c r="C74" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>235</v>
-      </c>
-      <c r="B75" t="s">
-        <v>162</v>
-      </c>
-      <c r="C75" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>236</v>
-      </c>
-      <c r="B76" t="s">
-        <v>162</v>
-      </c>
-      <c r="C76" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>237</v>
-      </c>
-      <c r="B77" t="s">
-        <v>162</v>
-      </c>
-      <c r="C77" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>238</v>
-      </c>
-      <c r="B78" t="s">
-        <v>162</v>
-      </c>
-      <c r="C78" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>239</v>
-      </c>
-      <c r="B79" t="s">
-        <v>162</v>
-      </c>
-      <c r="C79" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>240</v>
-      </c>
-      <c r="B80" t="s">
-        <v>162</v>
-      </c>
-      <c r="C80" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>241</v>
-      </c>
-      <c r="B81" t="s">
-        <v>162</v>
-      </c>
-      <c r="C81" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>242</v>
-      </c>
-      <c r="B82" t="s">
-        <v>162</v>
-      </c>
-      <c r="C82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>243</v>
-      </c>
-      <c r="B83" t="s">
-        <v>162</v>
-      </c>
-      <c r="C83" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>244</v>
-      </c>
-      <c r="B84" t="s">
-        <v>162</v>
-      </c>
-      <c r="C84" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>245</v>
-      </c>
-      <c r="B85" t="s">
-        <v>162</v>
-      </c>
-      <c r="C85" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>246</v>
-      </c>
-      <c r="B86" t="s">
-        <v>162</v>
-      </c>
-      <c r="C86" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>247</v>
-      </c>
-      <c r="B87" t="s">
-        <v>162</v>
-      </c>
-      <c r="C87" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>248</v>
-      </c>
-      <c r="B88" t="s">
-        <v>162</v>
-      </c>
-      <c r="C88" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>249</v>
-      </c>
-      <c r="B89" t="s">
-        <v>162</v>
-      </c>
-      <c r="C89" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>250</v>
-      </c>
-      <c r="B90" t="s">
-        <v>162</v>
-      </c>
-      <c r="C90" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>251</v>
-      </c>
-      <c r="B91" t="s">
-        <v>162</v>
-      </c>
-      <c r="C91" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>252</v>
-      </c>
-      <c r="B92" t="s">
-        <v>162</v>
-      </c>
-      <c r="C92" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>253</v>
-      </c>
-      <c r="B93" t="s">
-        <v>162</v>
-      </c>
-      <c r="C93" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>254</v>
-      </c>
-      <c r="B94" t="s">
-        <v>162</v>
-      </c>
-      <c r="C94" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>255</v>
-      </c>
-      <c r="B95" t="s">
-        <v>162</v>
-      </c>
-      <c r="C95" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>256</v>
-      </c>
-      <c r="B96" t="s">
-        <v>162</v>
-      </c>
-      <c r="C96" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>257</v>
-      </c>
-      <c r="B97" t="s">
-        <v>162</v>
-      </c>
-      <c r="C97" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>258</v>
-      </c>
-      <c r="B98" t="s">
-        <v>162</v>
-      </c>
-      <c r="C98" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>259</v>
-      </c>
-      <c r="B99" t="s">
-        <v>162</v>
-      </c>
-      <c r="C99" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>260</v>
-      </c>
-      <c r="B100" t="s">
-        <v>162</v>
-      </c>
-      <c r="C100" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>261</v>
-      </c>
-      <c r="B101" t="s">
-        <v>162</v>
-      </c>
-      <c r="C101" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>262</v>
-      </c>
-      <c r="B102" t="s">
-        <v>162</v>
-      </c>
-      <c r="C102" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>263</v>
-      </c>
-      <c r="B103" t="s">
-        <v>162</v>
-      </c>
-      <c r="C103" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>264</v>
-      </c>
-      <c r="B104" t="s">
-        <v>162</v>
-      </c>
-      <c r="C104" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>265</v>
-      </c>
-      <c r="B105" t="s">
-        <v>162</v>
-      </c>
-      <c r="C105" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>266</v>
-      </c>
-      <c r="B106" t="s">
-        <v>162</v>
-      </c>
-      <c r="C106" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>267</v>
-      </c>
-      <c r="B107" t="s">
-        <v>162</v>
-      </c>
-      <c r="C107" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>268</v>
-      </c>
-      <c r="B108" t="s">
-        <v>162</v>
-      </c>
-      <c r="C108" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>269</v>
-      </c>
-      <c r="B109" t="s">
-        <v>162</v>
-      </c>
-      <c r="C109" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>270</v>
-      </c>
-      <c r="B110" t="s">
-        <v>162</v>
-      </c>
-      <c r="C110" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>271</v>
-      </c>
-      <c r="B111" t="s">
-        <v>162</v>
-      </c>
-      <c r="C111" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>272</v>
-      </c>
-      <c r="B112" t="s">
-        <v>162</v>
-      </c>
-      <c r="C112" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>273</v>
-      </c>
-      <c r="B113" t="s">
-        <v>162</v>
-      </c>
-      <c r="C113" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>274</v>
-      </c>
-      <c r="B114" t="s">
-        <v>162</v>
-      </c>
-      <c r="C114" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>275</v>
-      </c>
-      <c r="B115" t="s">
-        <v>162</v>
-      </c>
-      <c r="C115" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>276</v>
-      </c>
-      <c r="B116" t="s">
-        <v>162</v>
-      </c>
-      <c r="C116" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>277</v>
-      </c>
-      <c r="B117" t="s">
-        <v>162</v>
-      </c>
-      <c r="C117" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>278</v>
-      </c>
-      <c r="B118" t="s">
-        <v>162</v>
-      </c>
-      <c r="C118" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>279</v>
-      </c>
-      <c r="B119" t="s">
-        <v>162</v>
-      </c>
-      <c r="C119" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>280</v>
-      </c>
-      <c r="B120" t="s">
-        <v>162</v>
-      </c>
-      <c r="C120" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>281</v>
-      </c>
-      <c r="B121" t="s">
-        <v>162</v>
-      </c>
-      <c r="C121" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/excelsheets/Tools.xlsx
+++ b/assets/data/excelsheets/Tools.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\hello-from-anon-researcher.github.io\assets\data\excelsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B77FC8E-36FB-4A74-9B7E-8F2A5FEB9136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DC9761-1A94-4005-9AF0-89C7DD69E128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Not Malware Detection" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="283">
   <si>
     <t>Paper</t>
   </si>
@@ -428,9 +428,6 @@
     <t>Scaling Static Taint Analysis to Industrial SOA Applications: A Case Study at Alibaba</t>
   </si>
   <si>
-    <t>ow Does Misconfiguration of Analytic Services Compromise Mobile Privacy?</t>
-  </si>
-  <si>
     <t>Mobile keylogger detection using machine learning technique</t>
   </si>
   <si>
@@ -885,6 +882,12 @@
   </si>
   <si>
     <t>A machine-learning approach for classifying and categorizing android sources and sinks</t>
+  </si>
+  <si>
+    <t>Dynamic Loading</t>
+  </si>
+  <si>
+    <t>How Does Misconfiguration of Analytic Services Compromise Mobile Privacy?</t>
   </si>
 </sst>
 </file>
@@ -1250,7 +1253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E418EBA0-0C1C-4681-8DB9-511C5F1279F7}">
   <dimension ref="A1:C120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -1274,10 +1277,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1285,10 +1288,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1296,10 +1299,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1307,10 +1310,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1318,10 +1321,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1329,10 +1332,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1340,10 +1343,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1351,10 +1354,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1362,10 +1365,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1373,10 +1376,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1384,10 +1387,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1395,10 +1398,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1406,10 +1409,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1417,10 +1420,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1428,10 +1431,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1439,10 +1442,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1450,10 +1453,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1461,10 +1464,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1472,10 +1475,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1483,10 +1486,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1494,10 +1497,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
@@ -1505,10 +1508,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C23" t="s">
         <v>35</v>
@@ -1516,10 +1519,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1527,10 +1530,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1538,10 +1541,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C26" t="s">
         <v>35</v>
@@ -1549,10 +1552,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1560,10 +1563,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1571,10 +1574,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1582,10 +1585,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1593,10 +1596,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1604,10 +1607,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1615,10 +1618,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1626,10 +1629,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1637,10 +1640,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1648,10 +1651,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C36" t="s">
         <v>35</v>
@@ -1659,10 +1662,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C37" t="s">
         <v>35</v>
@@ -1670,10 +1673,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1681,10 +1684,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1692,10 +1695,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1703,10 +1706,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1714,10 +1717,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C42" t="s">
         <v>35</v>
@@ -1725,10 +1728,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1736,10 +1739,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C44" t="s">
         <v>35</v>
@@ -1747,10 +1750,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C45" t="s">
         <v>35</v>
@@ -1758,10 +1761,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1769,10 +1772,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1780,10 +1783,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1791,10 +1794,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1802,10 +1805,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1813,10 +1816,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1824,10 +1827,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1835,10 +1838,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1846,10 +1849,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C54" t="s">
         <v>9</v>
@@ -1857,10 +1860,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1868,10 +1871,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1879,10 +1882,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B57" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1890,10 +1893,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B58" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1901,10 +1904,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1912,10 +1915,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B60" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1923,10 +1926,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B61" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -1934,10 +1937,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B62" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C62" t="s">
         <v>35</v>
@@ -1945,10 +1948,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B63" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C63" t="s">
         <v>35</v>
@@ -1956,10 +1959,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B64" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C64" t="s">
         <v>35</v>
@@ -1967,10 +1970,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B65" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -1978,10 +1981,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C66" t="s">
         <v>35</v>
@@ -1989,10 +1992,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C67" t="s">
         <v>35</v>
@@ -2000,10 +2003,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B68" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C68" t="s">
         <v>35</v>
@@ -2011,10 +2014,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B69" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C69" t="s">
         <v>35</v>
@@ -2022,10 +2025,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B70" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -2033,10 +2036,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B71" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2044,10 +2047,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2055,10 +2058,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -2066,10 +2069,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B74" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2077,10 +2080,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C75" t="s">
         <v>9</v>
@@ -2088,10 +2091,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B76" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2099,10 +2102,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B77" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2110,10 +2113,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" t="s">
         <v>35</v>
@@ -2121,10 +2124,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2132,10 +2135,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B80" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2143,10 +2146,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B81" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C81" t="s">
         <v>9</v>
@@ -2154,10 +2157,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B82" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C82" t="s">
         <v>9</v>
@@ -2165,10 +2168,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C83" t="s">
         <v>35</v>
@@ -2176,10 +2179,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B84" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C84" t="s">
         <v>35</v>
@@ -2187,10 +2190,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B85" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2198,10 +2201,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2209,10 +2212,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B87" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2220,10 +2223,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B88" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2231,10 +2234,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B89" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2242,10 +2245,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B90" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C90" t="s">
         <v>9</v>
@@ -2253,10 +2256,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B91" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2264,10 +2267,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B92" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2275,10 +2278,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B93" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2286,10 +2289,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B94" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2297,10 +2300,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B95" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2308,10 +2311,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B96" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C96" t="s">
         <v>35</v>
@@ -2319,10 +2322,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B97" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" t="s">
         <v>35</v>
@@ -2330,10 +2333,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B98" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C98" t="s">
         <v>35</v>
@@ -2341,10 +2344,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B99" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C99" t="s">
         <v>35</v>
@@ -2352,10 +2355,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B100" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C100" t="s">
         <v>35</v>
@@ -2363,10 +2366,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B101" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C101" t="s">
         <v>35</v>
@@ -2374,10 +2377,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B102" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C102" t="s">
         <v>35</v>
@@ -2385,10 +2388,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B103" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C103" t="s">
         <v>35</v>
@@ -2396,10 +2399,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B104" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C104" t="s">
         <v>35</v>
@@ -2407,10 +2410,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B105" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C105" t="s">
         <v>35</v>
@@ -2418,10 +2421,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B106" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C106" t="s">
         <v>35</v>
@@ -2429,10 +2432,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B107" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C107" t="s">
         <v>35</v>
@@ -2440,10 +2443,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B108" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C108" t="s">
         <v>35</v>
@@ -2451,10 +2454,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B109" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C109" t="s">
         <v>35</v>
@@ -2462,10 +2465,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B110" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C110" t="s">
         <v>35</v>
@@ -2473,10 +2476,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B111" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C111" t="s">
         <v>35</v>
@@ -2484,10 +2487,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B112" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C112" t="s">
         <v>35</v>
@@ -2495,10 +2498,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B113" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C113" t="s">
         <v>35</v>
@@ -2506,10 +2509,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B114" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C114" t="s">
         <v>35</v>
@@ -2517,10 +2520,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B115" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C115" t="s">
         <v>35</v>
@@ -2528,10 +2531,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B116" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C116" t="s">
         <v>35</v>
@@ -2539,10 +2542,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B117" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C117" t="s">
         <v>35</v>
@@ -2550,10 +2553,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B118" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C118" t="s">
         <v>35</v>
@@ -2561,10 +2564,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B119" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2572,10 +2575,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B120" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C120" t="s">
         <v>35</v>
@@ -2590,8 +2593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3569,7 +3572,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3780,10 +3783,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0D4630-7DB9-4EF4-B1E0-F67154ECA05D}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4048,7 +4051,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>282</v>
       </c>
       <c r="B24" t="s">
         <v>107</v>
@@ -4059,7 +4062,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B25" t="s">
         <v>107</v>
@@ -4070,7 +4073,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B26" t="s">
         <v>107</v>
@@ -4081,7 +4084,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B27" t="s">
         <v>107</v>
@@ -4092,7 +4095,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B28" t="s">
         <v>107</v>
@@ -4103,7 +4106,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B29" t="s">
         <v>107</v>
@@ -4114,7 +4117,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B30" t="s">
         <v>107</v>
@@ -4125,7 +4128,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B31" t="s">
         <v>107</v>
@@ -4136,23 +4139,12 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B32" t="s">
         <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>138</v>
-      </c>
-      <c r="B33" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4189,10 +4181,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s">
         <v>139</v>
-      </c>
-      <c r="B2" t="s">
-        <v>140</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -4200,10 +4192,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -4211,10 +4203,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -4222,10 +4214,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
@@ -4233,10 +4225,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
@@ -4252,7 +4244,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4275,10 +4267,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" t="s">
         <v>145</v>
-      </c>
-      <c r="B2" t="s">
-        <v>146</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -4286,10 +4278,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -4297,10 +4289,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -4308,10 +4300,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -4319,10 +4311,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -4330,10 +4322,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -4341,10 +4333,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -4352,10 +4344,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -4363,10 +4355,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -4374,10 +4366,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -4385,10 +4377,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -4396,10 +4388,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -4407,10 +4399,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -4418,10 +4410,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -4429,10 +4421,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -4445,10 +4437,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E84EEF-058E-495D-BBE2-A3BE79AFDEC1}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4471,13 +4463,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>281</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/excelsheets/Tools.xlsx
+++ b/assets/data/excelsheets/Tools.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael Cao\Desktop\artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAD4936-CA96-4836-AFA9-82CA644A7D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D40F99-6DCB-45DC-A192-E35579B33B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generic Malware (121)" sheetId="1" r:id="rId1"/>
@@ -1168,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3070,7 +3070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
